--- a/data/trans_orig/DCD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03FD70B8-21B3-400C-9017-7428F22E2409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA6B0E8-B55E-4BFE-8F53-F3804F5F6CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2A4BFDD-52A9-48A2-89EC-7C0CCEE50485}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFC067FF-A2DE-415B-A74C-21C1475724FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -158,643 +158,643 @@
     <t>12,31%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>75,76%</t>
   </si>
   <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>7,39%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
     <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
   </si>
   <si>
     <t>62,92%</t>
   </si>
   <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>88,41%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>80,32%</t>
   </si>
   <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
   </si>
   <si>
     <t>86,0%</t>
   </si>
   <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>80,03%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D60851D-F1E0-4F6E-8393-418C06B4F171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ABEB7-2A4C-47E4-A193-71E674FBE13E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1873,7 +1873,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1924,7 +1924,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1957,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A427E22C-5B94-4148-A3E3-3CB581F3553E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA799A43-BD2E-4A5A-A8C4-817313F88BF6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B6172C-338F-4F50-A6AD-AB168549472A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86106C26-F374-4FAE-A460-C082C9D6A002}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,7 +2853,7 @@
         <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>281</v>
@@ -2862,13 +2862,13 @@
         <v>305514</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>661268</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H5" s="7">
         <v>707</v>
@@ -2898,13 +2898,13 @@
         <v>782226</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>1373</v>
@@ -2913,13 +2913,13 @@
         <v>1443493</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>109507</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H7" s="7">
         <v>193</v>
@@ -3002,13 +3002,13 @@
         <v>209636</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -3017,13 +3017,13 @@
         <v>319144</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3038,13 @@
         <v>1966878</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>1715</v>
@@ -3053,13 +3053,13 @@
         <v>1778664</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>3567</v>
@@ -3068,13 +3068,13 @@
         <v>3745541</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3142,13 @@
         <v>25439</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3157,13 +3157,13 @@
         <v>39394</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -3175,10 +3175,10 @@
         <v>80</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3193,13 @@
         <v>521447</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H11" s="7">
         <v>489</v>
@@ -3208,10 +3208,10 @@
         <v>509746</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>158</v>
@@ -3459,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F13070-A810-4A95-BD70-960A6C4B3D81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133AAD74-613B-4FC5-B2FB-38F8B1F924A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3750,7 +3750,7 @@
         <v>704</v>
       </c>
       <c r="I7" s="7">
-        <v>477404</v>
+        <v>477405</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>201</v>
@@ -3852,7 +3852,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4096,7 +4096,7 @@
         <v>2840</v>
       </c>
       <c r="D14" s="7">
-        <v>2928826</v>
+        <v>2928825</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>243</v>
@@ -4126,7 +4126,7 @@
         <v>6646</v>
       </c>
       <c r="N14" s="7">
-        <v>5743192</v>
+        <v>5743191</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>249</v>
@@ -4147,7 +4147,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4177,7 +4177,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/DCD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA6B0E8-B55E-4BFE-8F53-F3804F5F6CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC77330-4298-4CDD-9905-8B48451B2AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFC067FF-A2DE-415B-A74C-21C1475724FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B24768B-E560-4243-B6F4-C2167760D8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -161,31 +161,31 @@
     <t>10,44%</t>
   </si>
   <si>
-    <t>14,58%</t>
+    <t>14,67%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>85,42%</t>
+    <t>85,33%</t>
   </si>
   <si>
     <t>89,56%</t>
@@ -194,142 +194,136 @@
     <t>75,76%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>87,97%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>15,05%</t>
+    <t>15,0%</t>
   </si>
   <si>
     <t>17,63%</t>
@@ -338,19 +332,19 @@
     <t>11,58%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>83,67%</t>
@@ -359,193 +353,199 @@
     <t>82,37%</t>
   </si>
   <si>
-    <t>84,95%</t>
+    <t>85,0%</t>
   </si>
   <si>
     <t>88,42%</t>
   </si>
   <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>78,64%</t>
   </si>
   <si>
-    <t>81,21%</t>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>89,46%</t>
   </si>
   <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>9,23%</t>
+    <t>9,17%</t>
   </si>
   <si>
     <t>10,69%</t>
@@ -554,19 +554,19 @@
     <t>93,25%</t>
   </si>
   <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>90,02%</t>
@@ -575,7 +575,7 @@
     <t>89,31%</t>
   </si>
   <si>
-    <t>90,77%</t>
+    <t>90,83%</t>
   </si>
   <si>
     <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1206,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ABEB7-2A4C-47E4-A193-71E674FBE13E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55801792-C461-4508-840C-FAB793E8EFB6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1533,7 +1533,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1584,7 +1584,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1843,7 +1843,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1894,7 +1894,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1957,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA799A43-BD2E-4A5A-A8C4-817313F88BF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F652FB7A-50DC-462E-8AB6-A8D1FF2336EA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2397,7 +2397,7 @@
         <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -2406,13 +2406,13 @@
         <v>44569</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -2421,13 +2421,13 @@
         <v>55670</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2442,13 @@
         <v>470080</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
@@ -2457,13 +2457,13 @@
         <v>414062</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>801</v>
@@ -2472,13 +2472,13 @@
         <v>884142</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2546,13 @@
         <v>227543</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H13" s="7">
         <v>536</v>
@@ -2561,13 +2561,13 @@
         <v>580234</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>747</v>
@@ -2576,13 +2576,13 @@
         <v>807777</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2597,13 @@
         <v>3192239</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>2758</v>
@@ -2612,13 +2612,13 @@
         <v>2973996</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M14" s="7">
         <v>5749</v>
@@ -2627,13 +2627,13 @@
         <v>6166235</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86106C26-F374-4FAE-A460-C082C9D6A002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1C3A0D-279C-40CE-93F5-A117C885BFBC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2725,7 +2725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2832,13 +2832,13 @@
         <v>93079</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>185</v>
@@ -2847,13 +2847,13 @@
         <v>212434</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>281</v>
@@ -2862,13 +2862,13 @@
         <v>305514</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>661268</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H5" s="7">
         <v>707</v>
@@ -2898,10 +2898,10 @@
         <v>782226</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>123</v>
@@ -3172,7 +3172,7 @@
         <v>64834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>151</v>
@@ -3223,7 +3223,7 @@
         <v>1031192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>159</v>
@@ -3459,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133AAD74-613B-4FC5-B2FB-38F8B1F924A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C3DDCC-7434-40FA-A088-D0E7989F2E34}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/DCD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC77330-4298-4CDD-9905-8B48451B2AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{485BC1B9-B790-424F-B6F3-E4378BDB63CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B24768B-E560-4243-B6F4-C2167760D8EA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B411E22B-C57B-4C3B-8C70-4D254D916CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -158,643 +158,643 @@
     <t>12,31%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>75,76%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>7,41%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
     <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>62,92%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>88,41%</t>
   </si>
   <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>80,32%</t>
   </si>
   <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>86,0%</t>
   </si>
   <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>80,03%</t>
   </si>
   <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55801792-C461-4508-840C-FAB793E8EFB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630BB638-18E0-468C-9FC0-4C1036CAFF25}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1533,7 +1533,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1584,7 +1584,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1843,7 +1843,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1873,7 +1873,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1894,7 +1894,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1924,7 +1924,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1957,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F652FB7A-50DC-462E-8AB6-A8D1FF2336EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A39B39-F182-476C-957A-01EB9FEA189D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2397,7 +2397,7 @@
         <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -2406,13 +2406,13 @@
         <v>44569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -2421,13 +2421,13 @@
         <v>55670</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2442,13 @@
         <v>470080</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
@@ -2457,13 +2457,13 @@
         <v>414062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>801</v>
@@ -2472,13 +2472,13 @@
         <v>884142</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2546,13 @@
         <v>227543</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7">
         <v>536</v>
@@ -2561,13 +2561,13 @@
         <v>580234</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>747</v>
@@ -2576,13 +2576,13 @@
         <v>807777</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2597,13 @@
         <v>3192239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>2758</v>
@@ -2612,13 +2612,13 @@
         <v>2973996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
         <v>5749</v>
@@ -2627,13 +2627,13 @@
         <v>6166235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1C3A0D-279C-40CE-93F5-A117C885BFBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA7141B-2026-49A8-832D-B123900EA00E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2725,7 +2725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2832,13 +2832,13 @@
         <v>93079</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>185</v>
@@ -2847,13 +2847,13 @@
         <v>212434</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>281</v>
@@ -2862,13 +2862,13 @@
         <v>305514</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>661268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
         <v>707</v>
@@ -2898,13 +2898,13 @@
         <v>782226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>1373</v>
@@ -2913,13 +2913,13 @@
         <v>1443493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>109507</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7">
         <v>193</v>
@@ -3002,13 +3002,13 @@
         <v>209636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -3017,13 +3017,13 @@
         <v>319144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3038,13 @@
         <v>1966878</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>1715</v>
@@ -3053,13 +3053,13 @@
         <v>1778664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>3567</v>
@@ -3068,13 +3068,13 @@
         <v>3745541</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3142,13 @@
         <v>25439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3157,13 +3157,13 @@
         <v>39394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -3172,13 +3172,13 @@
         <v>64834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3193,13 @@
         <v>521447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H11" s="7">
         <v>489</v>
@@ -3208,10 +3208,10 @@
         <v>509746</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>158</v>
@@ -3223,7 +3223,7 @@
         <v>1031192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>159</v>
@@ -3459,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C3DDCC-7434-40FA-A088-D0E7989F2E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4097A65B-728A-4E0F-AADD-60153B7DD074}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3750,7 +3750,7 @@
         <v>704</v>
       </c>
       <c r="I7" s="7">
-        <v>477405</v>
+        <v>477404</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>201</v>
@@ -3852,7 +3852,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4096,7 +4096,7 @@
         <v>2840</v>
       </c>
       <c r="D14" s="7">
-        <v>2928825</v>
+        <v>2928826</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>243</v>
@@ -4126,7 +4126,7 @@
         <v>6646</v>
       </c>
       <c r="N14" s="7">
-        <v>5743191</v>
+        <v>5743192</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>249</v>
@@ -4147,7 +4147,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4177,7 +4177,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/DCD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Estudios-trans_orig.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{485BC1B9-B790-424F-B6F3-E4378BDB63CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{389BD622-2F13-404D-8E4E-A48523B50951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B411E22B-C57B-4C3B-8C70-4D254D916CC1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9BA066EC-2A6B-4FB3-AAA6-8F5EDBE66130}"/>
   </bookViews>
   <sheets>
-    <sheet name="2007" sheetId="2" r:id="rId1"/>
-    <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2016" sheetId="4" r:id="rId3"/>
-    <sheet name="2023" sheetId="5" r:id="rId4"/>
+    <sheet name="2012" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
+    <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="252">
-  <si>
-    <t>Población con dolor crónico discapacitante en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+  <si>
+    <t>Población con dolor crónico discapacitante en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,303 +73,237 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con dolor crónico discapacitante en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
     <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -581,220 +514,220 @@
     <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630BB638-18E0-468C-9FC0-4C1036CAFF25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733BE8F6-7887-4F3C-9916-059C41679E4B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1324,10 +1257,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>120012</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1339,85 +1272,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>324253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>444265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1038</v>
+        <v>796</v>
       </c>
       <c r="D5" s="7">
-        <v>1031723</v>
+        <v>854631</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1291</v>
+        <v>943</v>
       </c>
       <c r="I5" s="7">
-        <v>1315113</v>
+        <v>1013544</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2329</v>
+        <v>1739</v>
       </c>
       <c r="N5" s="7">
-        <v>2346836</v>
+        <v>1868175</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,153 +1359,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1038</v>
+        <v>908</v>
       </c>
       <c r="D6" s="7">
-        <v>1031723</v>
+        <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1291</v>
+        <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1315113</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2329</v>
+        <v>2155</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2312440</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>96430</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>211411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>307841</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1649</v>
+        <v>1767</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1867527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>1554</v>
+        <v>1442</v>
       </c>
       <c r="I8" s="7">
-        <v>1587673</v>
+        <v>1546392</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>3203</v>
+        <v>3209</v>
       </c>
       <c r="N8" s="7">
-        <v>3281086</v>
+        <v>3413919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,153 +1514,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1649</v>
+        <v>1856</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1963957</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1554</v>
+        <v>1635</v>
       </c>
       <c r="I9" s="7">
-        <v>1587673</v>
+        <v>1757803</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3203</v>
+        <v>3491</v>
       </c>
       <c r="N9" s="7">
-        <v>3281086</v>
+        <v>3721760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>11101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>44569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>55670</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>527</v>
+        <v>428</v>
       </c>
       <c r="D11" s="7">
-        <v>551408</v>
+        <v>470080</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>452</v>
+        <v>373</v>
       </c>
       <c r="I11" s="7">
-        <v>476412</v>
+        <v>414062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>979</v>
+        <v>801</v>
       </c>
       <c r="N11" s="7">
-        <v>1027820</v>
+        <v>884143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,49 +1669,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>527</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>551408</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>476412</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>979</v>
+        <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>1027820</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,100 +1722,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>227543</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>580234</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>807777</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3214</v>
+        <v>2991</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3192239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>3297</v>
+        <v>2758</v>
       </c>
       <c r="I14" s="7">
-        <v>3379198</v>
+        <v>2973996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>6511</v>
+        <v>5749</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6166235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,54 +1824,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3214</v>
+        <v>3202</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3419782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3554230</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6511</v>
+        <v>6496</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6974012</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A39B39-F182-476C-957A-01EB9FEA189D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8133749-D91E-4FEF-8B22-93A2DD519CD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1974,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2075,100 +2008,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D4" s="7">
-        <v>120012</v>
+        <v>93079</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c r="I4" s="7">
-        <v>324253</v>
+        <v>212434</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="N4" s="7">
-        <v>444265</v>
+        <v>305514</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>796</v>
+        <v>666</v>
       </c>
       <c r="D5" s="7">
-        <v>854631</v>
+        <v>661268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>943</v>
+        <v>707</v>
       </c>
       <c r="I5" s="7">
-        <v>1013543</v>
+        <v>782226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1739</v>
+        <v>1373</v>
       </c>
       <c r="N5" s="7">
-        <v>1868175</v>
+        <v>1443493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,153 +2110,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>908</v>
+        <v>762</v>
       </c>
       <c r="D6" s="7">
-        <v>974643</v>
+        <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1247</v>
+        <v>892</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2155</v>
+        <v>1654</v>
       </c>
       <c r="N6" s="7">
-        <v>2312440</v>
+        <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D7" s="7">
-        <v>96430</v>
+        <v>109507</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>193</v>
       </c>
       <c r="I7" s="7">
-        <v>211411</v>
+        <v>209636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="N7" s="7">
-        <v>307841</v>
+        <v>319144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1767</v>
+        <v>1852</v>
       </c>
       <c r="D8" s="7">
-        <v>1867527</v>
+        <v>1966878</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>1442</v>
+        <v>1715</v>
       </c>
       <c r="I8" s="7">
-        <v>1546392</v>
+        <v>1778664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>3209</v>
+        <v>3567</v>
       </c>
       <c r="N8" s="7">
-        <v>3413919</v>
+        <v>3745541</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,153 +2265,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1856</v>
+        <v>1952</v>
       </c>
       <c r="D9" s="7">
-        <v>1963957</v>
+        <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1635</v>
+        <v>1908</v>
       </c>
       <c r="I9" s="7">
-        <v>1757803</v>
+        <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3491</v>
+        <v>3860</v>
       </c>
       <c r="N9" s="7">
-        <v>3721760</v>
+        <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>11101</v>
+        <v>25439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>44569</v>
+        <v>39394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>55670</v>
+        <v>64834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="D11" s="7">
-        <v>470080</v>
+        <v>521447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>373</v>
+        <v>489</v>
       </c>
       <c r="I11" s="7">
-        <v>414062</v>
+        <v>509746</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>801</v>
+        <v>969</v>
       </c>
       <c r="N11" s="7">
-        <v>884142</v>
+        <v>1031193</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,49 +2420,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>481181</v>
+        <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>412</v>
+        <v>526</v>
       </c>
       <c r="I12" s="7">
-        <v>458631</v>
+        <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>850</v>
+        <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,100 +2473,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D13" s="7">
-        <v>227543</v>
+        <v>228026</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>536</v>
+        <v>415</v>
       </c>
       <c r="I13" s="7">
-        <v>580234</v>
+        <v>461465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>747</v>
+        <v>632</v>
       </c>
       <c r="N13" s="7">
-        <v>807777</v>
+        <v>689491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2991</v>
+        <v>2998</v>
       </c>
       <c r="D14" s="7">
-        <v>3192239</v>
+        <v>3149592</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>2758</v>
+        <v>2911</v>
       </c>
       <c r="I14" s="7">
-        <v>2973996</v>
+        <v>3070635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>5749</v>
+        <v>5909</v>
       </c>
       <c r="N14" s="7">
-        <v>6166235</v>
+        <v>6220227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,54 +2575,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3202</v>
+        <v>3215</v>
       </c>
       <c r="D15" s="7">
-        <v>3419782</v>
+        <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3294</v>
+        <v>3326</v>
       </c>
       <c r="I15" s="7">
-        <v>3554230</v>
+        <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6496</v>
+        <v>6541</v>
       </c>
       <c r="N15" s="7">
-        <v>6974012</v>
+        <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2708,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA7141B-2026-49A8-832D-B123900EA00E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C1B077-FFF5-44DC-9694-4A442F3833EF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2725,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2826,100 +2759,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="D4" s="7">
-        <v>93079</v>
+        <v>133758</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>185</v>
+        <v>642</v>
       </c>
       <c r="I4" s="7">
-        <v>212434</v>
+        <v>329675</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>281</v>
+        <v>838</v>
       </c>
       <c r="N4" s="7">
-        <v>305514</v>
+        <v>463433</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>666</v>
+        <v>495</v>
       </c>
       <c r="D5" s="7">
-        <v>661268</v>
+        <v>381180</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I5" s="7">
-        <v>782226</v>
+        <v>425833</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>1373</v>
+        <v>1280</v>
       </c>
       <c r="N5" s="7">
-        <v>1443493</v>
+        <v>807013</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,153 +2861,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>762</v>
+        <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>754347</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>892</v>
+        <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>994660</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1654</v>
+        <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1749007</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="D7" s="7">
-        <v>109507</v>
+        <v>238983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>193</v>
+        <v>704</v>
       </c>
       <c r="I7" s="7">
-        <v>209636</v>
+        <v>439904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>293</v>
+        <v>973</v>
       </c>
       <c r="N7" s="7">
-        <v>319144</v>
+        <v>678887</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1852</v>
+        <v>1723</v>
       </c>
       <c r="D8" s="7">
-        <v>1966878</v>
+        <v>2051344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>1715</v>
+        <v>2217</v>
       </c>
       <c r="I8" s="7">
-        <v>1778664</v>
+        <v>1797919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>3567</v>
+        <v>3940</v>
       </c>
       <c r="N8" s="7">
-        <v>3745541</v>
+        <v>3849263</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,153 +3016,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>25439</v>
+        <v>51304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="I10" s="7">
-        <v>39394</v>
+        <v>129148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="N10" s="7">
-        <v>64834</v>
+        <v>180452</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>480</v>
+        <v>622</v>
       </c>
       <c r="D11" s="7">
-        <v>521447</v>
+        <v>595319</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>489</v>
+        <v>804</v>
       </c>
       <c r="I11" s="7">
-        <v>509746</v>
+        <v>531315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>969</v>
+        <v>1426</v>
       </c>
       <c r="N11" s="7">
-        <v>1031192</v>
+        <v>1126634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,49 +3171,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>546886</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>526</v>
+        <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>549140</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1027</v>
+        <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,100 +3224,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>524</v>
+      </c>
+      <c r="D13" s="7">
+        <v>424045</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1546</v>
+      </c>
+      <c r="I13" s="7">
+        <v>898727</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="7">
-        <v>228026</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="7">
-        <v>415</v>
-      </c>
-      <c r="I13" s="7">
-        <v>461465</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="M13" s="7">
-        <v>632</v>
+        <v>2070</v>
       </c>
       <c r="N13" s="7">
-        <v>689491</v>
+        <v>1322772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2998</v>
+        <v>2840</v>
       </c>
       <c r="D14" s="7">
-        <v>3149592</v>
+        <v>3027844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>2911</v>
+        <v>3806</v>
       </c>
       <c r="I14" s="7">
-        <v>3070635</v>
+        <v>2755067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>5909</v>
+        <v>6646</v>
       </c>
       <c r="N14" s="7">
-        <v>6220227</v>
+        <v>5782911</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,805 +3326,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3215</v>
+        <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3377618</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3326</v>
+        <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3532100</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6541</v>
+        <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>6909718</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4097A65B-728A-4E0F-AADD-60153B7DD074}">
-  <dimension ref="A1:Q16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="17" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
-        <v>196</v>
-      </c>
-      <c r="D4" s="7">
-        <v>143650</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="7">
-        <v>642</v>
-      </c>
-      <c r="I4" s="7">
-        <v>367108</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" s="7">
-        <v>838</v>
-      </c>
-      <c r="N4" s="7">
-        <v>510758</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7">
-        <v>495</v>
-      </c>
-      <c r="D5" s="7">
-        <v>397984</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="7">
-        <v>785</v>
-      </c>
-      <c r="I5" s="7">
-        <v>468845</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1280</v>
-      </c>
-      <c r="N5" s="7">
-        <v>866828</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>691</v>
-      </c>
-      <c r="D6" s="7">
-        <v>541634</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1427</v>
-      </c>
-      <c r="I6" s="7">
-        <v>835953</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1377586</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>269</v>
-      </c>
-      <c r="D7" s="7">
-        <v>250481</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="7">
-        <v>704</v>
-      </c>
-      <c r="I7" s="7">
-        <v>477404</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M7" s="7">
-        <v>973</v>
-      </c>
-      <c r="N7" s="7">
-        <v>727886</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1723</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1911541</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2217</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1772116</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3940</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3683657</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1992</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2162022</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2921</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2249520</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="7">
-        <v>4913</v>
-      </c>
-      <c r="N9" s="7">
-        <v>4411543</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>59</v>
-      </c>
-      <c r="D10" s="7">
-        <v>53737</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="7">
-        <v>200</v>
-      </c>
-      <c r="I10" s="7">
-        <v>140482</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M10" s="7">
-        <v>259</v>
-      </c>
-      <c r="N10" s="7">
-        <v>194219</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7">
-        <v>622</v>
-      </c>
-      <c r="D11" s="7">
-        <v>619302</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="7">
-        <v>804</v>
-      </c>
-      <c r="I11" s="7">
-        <v>573404</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1426</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1192707</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>681</v>
-      </c>
-      <c r="D12" s="7">
-        <v>673039</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1004</v>
-      </c>
-      <c r="I12" s="7">
-        <v>713886</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1685</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1386926</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>524</v>
-      </c>
-      <c r="D13" s="7">
-        <v>447869</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1546</v>
-      </c>
-      <c r="I13" s="7">
-        <v>984994</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2070</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1432863</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2840</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2928826</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3806</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2814366</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6646</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5743192</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3364</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3376695</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5352</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3799360</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
-        <v>8716</v>
-      </c>
-      <c r="N15" s="7">
-        <v>7176055</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
